--- a/landscape/data.xlsx
+++ b/landscape/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Documents\GitHub\ArtGraphsLandscapeAnalysis\landscape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD3C605-99F4-46FA-B41F-1E26DC7C90FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D29E270-A2EA-427B-9D2F-551373AFD174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -187,18 +187,6 @@
     <t>0,6666666667</t>
   </si>
   <si>
-    <t>0,6733775238788</t>
-  </si>
-  <si>
-    <t>0,343000</t>
-  </si>
-  <si>
-    <t>0,1205112549</t>
-  </si>
-  <si>
-    <t>0,4576340617</t>
-  </si>
-  <si>
     <t>SARI</t>
   </si>
   <si>
@@ -329,15 +317,6 @@
     <t>dbp:subject | dct:subject = subject; dbp:symbol | dbp:symbols = symbol</t>
   </si>
   <si>
-    <t>0,9922932008906</t>
-  </si>
-  <si>
-    <t>0,404809</t>
-  </si>
-  <si>
-    <t>0,3534944481</t>
-  </si>
-  <si>
     <t>YAGO</t>
   </si>
   <si>
@@ -444,19 +423,46 @@
   </si>
   <si>
     <t>structure_axis_weighted_avg</t>
+  </si>
+  <si>
+    <t>0,4777291915</t>
+  </si>
+  <si>
+    <t>0,3550291761</t>
+  </si>
+  <si>
+    <t>0,9947755102041</t>
+  </si>
+  <si>
+    <t>0,41</t>
+  </si>
+  <si>
+    <t>0,367462</t>
+  </si>
+  <si>
+    <t>0,6998926636581</t>
+  </si>
+  <si>
+    <t>0,1576351371</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -479,11 +485,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -767,7 +774,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H10"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,25 +794,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -914,111 +921,111 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
@@ -1030,16 +1037,16 @@
         <v>17</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1052,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD5DB09-8836-4A84-BA84-464503B0C862}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1111,8 +1118,8 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
+      <c r="B5" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>45</v>
@@ -1120,61 +1127,62 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1182,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523DE51-AF8D-41F0-93DB-8ABF3027061B}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,28 +1211,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1324,28 +1332,28 @@
       <c r="C5" s="1">
         <v>414678</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>49</v>
+      <c r="D5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="F5">
-        <v>74213</v>
+        <v>105593</v>
       </c>
       <c r="G5" s="1">
-        <v>615818</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>51</v>
+        <v>669857</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>24</v>
@@ -1354,10 +1362,10 @@
         <v>338</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1369,12 +1377,12 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>24</v>
@@ -1383,10 +1391,10 @@
         <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7">
         <v>13861</v>
@@ -1398,12 +1406,12 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
@@ -1415,7 +1423,7 @@
         <v>35</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1427,12 +1435,12 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
@@ -1440,28 +1448,28 @@
       <c r="C9" s="1">
         <v>11588</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>95</v>
+      <c r="D9" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>11678</v>
+        <v>12250</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>97</v>
+      <c r="I9" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>24</v>
@@ -1473,7 +1481,7 @@
         <v>10000000000000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1485,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1509,21 +1517,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1531,10 +1539,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
         <v>124</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1542,10 +1550,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1553,10 +1561,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -1564,10 +1572,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -1575,10 +1583,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C7">
         <v>0.8</v>
@@ -1604,10 +1612,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -1644,42 +1652,42 @@
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
